--- a/Text_Mining_Renewables/RE_Algorithm_Result_Summary_Update.xlsx
+++ b/Text_Mining_Renewables/RE_Algorithm_Result_Summary_Update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janine/Desktop/J9_School/Z_Previous Semesters/Y4 Sem 1/ANL488/Research Publish /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\Text_Mining_Renewables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8F16FA-6B75-144D-95F6-FE7DA28199C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9F160F-7919-4D0B-91E0-C35F043E537E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30640" yWindow="1120" windowWidth="30800" windowHeight="17500" activeTab="4" xr2:uid="{9D53C0A4-6563-C147-903F-783DAE53B77D}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9D53C0A4-6563-C147-903F-783DAE53B77D}"/>
   </bookViews>
   <sheets>
     <sheet name="Topic  Summary" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="224">
   <si>
     <t>Topics</t>
   </si>
@@ -1745,6 +1745,15 @@
       </rPr>
       <t>'.</t>
     </r>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Min</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +2320,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2843,7 +2852,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3324,7 +3333,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3704,7 +3713,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4221,7 +4230,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4742,7 +4751,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5259,7 +5268,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5682,7 +5691,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Coherence Scores'!$E$2</c:f>
+              <c:f>'Coherence Scores'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5798,15 +5807,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Coherence Scores'!$E$3:$E$12</c:f>
+              <c:f>'Coherence Scores'!$H$3:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.28908</c:v>
+                  <c:v>0.29488666666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3173833333333333</c:v>
+                  <c:v>0.33014166666666661</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.34244000000000002</c:v>
@@ -9114,16 +9123,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247015</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9450,36 +9459,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7C202E-3FD9-BF4A-824D-12C76629F2F1}">
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="15" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="15" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="39.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="39.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1640625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" style="17"/>
+    <col min="14" max="14" width="16.125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="9.125" style="17"/>
     <col min="16" max="16" width="15.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="1.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="9.1640625" style="15"/>
-    <col min="25" max="25" width="6.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1640625" style="15"/>
+    <col min="17" max="17" width="7.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="9.125" style="15"/>
+    <col min="25" max="25" width="6.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q1" s="15" t="s">
         <v>41</v>
       </c>
@@ -9487,7 +9496,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>64</v>
       </c>
@@ -9529,7 +9538,7 @@
       </c>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>52</v>
       </c>
@@ -9576,7 +9585,7 @@
       <c r="O3" s="15"/>
       <c r="P3" s="37"/>
     </row>
-    <row r="4" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>56</v>
       </c>
@@ -9619,7 +9628,7 @@
       <c r="O4" s="15"/>
       <c r="P4" s="37"/>
     </row>
-    <row r="5" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>54</v>
       </c>
@@ -9662,7 +9671,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="37"/>
     </row>
-    <row r="6" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>50</v>
       </c>
@@ -9705,7 +9714,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="37"/>
     </row>
-    <row r="7" spans="1:25" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>55</v>
       </c>
@@ -9748,7 +9757,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="37"/>
     </row>
-    <row r="8" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="74" t="s">
         <v>57</v>
       </c>
@@ -9783,7 +9792,7 @@
       </c>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="75"/>
       <c r="F9" s="78"/>
       <c r="G9" s="46">
@@ -9814,7 +9823,7 @@
       </c>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="75"/>
       <c r="F10" s="78"/>
       <c r="G10" s="46">
@@ -9845,7 +9854,7 @@
       </c>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="75"/>
       <c r="F11" s="79"/>
       <c r="G11" s="46">
@@ -9876,7 +9885,7 @@
       </c>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:25" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="76"/>
       <c r="F12" s="80"/>
       <c r="G12" s="55">
@@ -9907,7 +9916,7 @@
       </c>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="70" t="s">
         <v>59</v>
       </c>
@@ -9942,7 +9951,7 @@
       </c>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="70"/>
       <c r="F14" s="72"/>
       <c r="G14" s="46">
@@ -9973,7 +9982,7 @@
       </c>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="70"/>
       <c r="F15" s="72"/>
       <c r="G15" s="46">
@@ -10004,7 +10013,7 @@
       </c>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="70"/>
       <c r="F16" s="72"/>
       <c r="G16" s="46">
@@ -10035,7 +10044,7 @@
       </c>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="5:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="71"/>
       <c r="F17" s="73"/>
       <c r="G17" s="55">
@@ -10066,7 +10075,7 @@
       </c>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E18" s="66"/>
       <c r="F18" s="66"/>
       <c r="G18" s="66"/>
@@ -10078,7 +10087,7 @@
       <c r="M18" s="67"/>
       <c r="N18" s="67"/>
     </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
       <c r="G19" s="66"/>
@@ -10090,7 +10099,7 @@
       <c r="M19" s="67"/>
       <c r="N19" s="67"/>
     </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E20" s="66"/>
       <c r="F20" s="66"/>
       <c r="G20" s="66"/>
@@ -10102,7 +10111,7 @@
       <c r="M20" s="67"/>
       <c r="N20" s="67"/>
     </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E21" s="66"/>
       <c r="F21" s="66"/>
       <c r="G21" s="66"/>
@@ -10114,7 +10123,7 @@
       <c r="M21" s="67"/>
       <c r="N21" s="67"/>
     </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E22" s="66"/>
       <c r="F22" s="66"/>
       <c r="G22" s="66"/>
@@ -10126,7 +10135,7 @@
       <c r="M22" s="67"/>
       <c r="N22" s="67"/>
     </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E23" s="66"/>
       <c r="F23" s="66"/>
       <c r="G23" s="66"/>
@@ -10142,7 +10151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E24" s="66"/>
       <c r="F24" s="66"/>
       <c r="G24" s="66"/>
@@ -10179,21 +10188,21 @@
       <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="2.83203125" customWidth="1"/>
+    <col min="6" max="6" width="2.875" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="14" max="14" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -10210,7 +10219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -10229,7 +10238,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -10248,7 +10257,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -10267,7 +10276,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -10286,7 +10295,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -10304,7 +10313,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -10322,7 +10331,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -10340,7 +10349,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -10358,7 +10367,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -10376,7 +10385,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -10394,7 +10403,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>12</v>
       </c>
@@ -10403,7 +10412,7 @@
         <v>0.30200000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>13</v>
       </c>
@@ -10412,13 +10421,13 @@
         <v>3.0200000000000005E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -10437,7 +10446,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -10456,7 +10465,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -10475,7 +10484,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -10494,7 +10503,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -10513,7 +10522,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -10532,7 +10541,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -10551,7 +10560,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -10570,7 +10579,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -10589,7 +10598,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -10608,7 +10617,7 @@
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>12</v>
       </c>
@@ -10617,7 +10626,7 @@
         <v>0.41300000000000014</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>13</v>
       </c>
@@ -10626,12 +10635,12 @@
         <v>4.1300000000000017E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -10649,7 +10658,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -10667,7 +10676,7 @@
         <v>7.2000000000000008E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -10685,7 +10694,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -10703,7 +10712,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -10721,7 +10730,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -10739,7 +10748,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -10757,7 +10766,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -10775,7 +10784,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -10793,7 +10802,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -10811,7 +10820,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>12</v>
       </c>
@@ -10820,7 +10829,7 @@
         <v>0.46300000000000008</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>13</v>
       </c>
@@ -10829,12 +10838,12 @@
         <v>4.6300000000000008E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -10852,7 +10861,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -10870,7 +10879,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -10888,7 +10897,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -10906,7 +10915,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -10924,7 +10933,7 @@
         <v>3.6000000000000004E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -10942,7 +10951,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -10960,7 +10969,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -10978,7 +10987,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -10996,7 +11005,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -11014,7 +11023,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>12</v>
       </c>
@@ -11027,7 +11036,7 @@
       </c>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>13</v>
       </c>
@@ -11048,7 +11057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H57" s="8">
         <v>1</v>
       </c>
@@ -11065,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -11085,7 +11094,7 @@
         <v>0.6894409937888204</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -11118,7 +11127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -11151,7 +11160,7 @@
         <v>0.18012422360248459</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -11184,7 +11193,7 @@
         <v>0.81987577639751541</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>89</v>
       </c>
@@ -11202,7 +11211,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -11220,7 +11229,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>91</v>
       </c>
@@ -11241,7 +11250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>92</v>
       </c>
@@ -11262,7 +11271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>93</v>
       </c>
@@ -11283,7 +11292,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>94</v>
       </c>
@@ -11304,7 +11313,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -11322,7 +11331,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>12</v>
       </c>
@@ -11331,7 +11340,7 @@
         <v>0.43400000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>13</v>
       </c>
@@ -11340,17 +11349,17 @@
         <v>4.3400000000000008E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -11369,27 +11378,27 @@
       <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="29" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="26" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="2.625" customWidth="1"/>
+    <col min="8" max="8" width="22.625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="71.5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -11409,7 +11418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>MID($I3,SEARCH("'",$I3)+1, SEARCH("'",$I3,SEARCH("'",$I3)+1) -SEARCH("'",$I3)-1)</f>
         <v>system</v>
@@ -11439,7 +11448,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A12" si="2">MID($I4,SEARCH("'",$I4)+1, SEARCH("'",$I4,SEARCH("'",$I4)+1) -SEARCH("'",$I4)-1)</f>
         <v>process</v>
@@ -11469,7 +11478,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="2"/>
         <v>management</v>
@@ -11499,7 +11508,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="2"/>
         <v>community</v>
@@ -11529,7 +11538,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="2"/>
         <v>plant</v>
@@ -11559,7 +11568,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="2"/>
         <v>model</v>
@@ -11589,7 +11598,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="2"/>
         <v>sustainability</v>
@@ -11619,7 +11628,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="2"/>
         <v>implementation</v>
@@ -11649,7 +11658,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
         <v>adoption</v>
@@ -11679,7 +11688,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
         <v>quality</v>
@@ -11709,7 +11718,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="14"/>
       <c r="E13" t="s">
         <v>12</v>
@@ -11720,7 +11729,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="14"/>
       <c r="E14" t="s">
         <v>13</v>
@@ -11730,19 +11739,19 @@
         <v>7.031935641150644E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>MID($I18,SEARCH("'",$I18)+1, SEARCH("'",$I18,SEARCH("'",$I18)+1) -SEARCH("'",$I18)-1)</f>
         <v>community</v>
@@ -11772,7 +11781,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A27" si="6">MID(I19,SEARCH("'",I19)+1, SEARCH("'",I19,SEARCH("'",I19)+1) -SEARCH("'",I19)-1)</f>
         <v>local</v>
@@ -11802,7 +11811,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="6"/>
         <v>industry</v>
@@ -11832,7 +11841,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="6"/>
         <v>case</v>
@@ -11862,7 +11871,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="6"/>
         <v>government</v>
@@ -11892,7 +11901,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="6"/>
         <v>support</v>
@@ -11922,7 +11931,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="6"/>
         <v>social</v>
@@ -11952,7 +11961,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="6"/>
         <v>international</v>
@@ -11982,7 +11991,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="6"/>
         <v>development</v>
@@ -12012,7 +12021,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="6"/>
         <v>change</v>
@@ -12042,7 +12051,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="14"/>
       <c r="E28" t="s">
         <v>12</v>
@@ -12052,7 +12061,7 @@
         <v>1.0078095946448453</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="14"/>
       <c r="E29" t="s">
         <v>13</v>
@@ -12062,19 +12071,19 @@
         <v>0.10078095946448454</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>MID($I33,SEARCH("'",$I33)+1, SEARCH("'",$I33,SEARCH("'",$I33)+1) -SEARCH("'",$I33)-1)</f>
         <v>technology</v>
@@ -12104,7 +12113,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" ref="A34:A42" si="10">MID(I34,SEARCH("'",I34)+1, SEARCH("'",I34,SEARCH("'",I34)+1) -SEARCH("'",I34)-1)</f>
         <v>investment</v>
@@ -12134,7 +12143,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="10"/>
         <v>stakeholder</v>
@@ -12164,7 +12173,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="10"/>
         <v>role</v>
@@ -12194,7 +12203,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="10"/>
         <v>investor</v>
@@ -12224,7 +12233,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="10"/>
         <v>performance</v>
@@ -12254,7 +12263,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="10"/>
         <v>framework</v>
@@ -12284,7 +12293,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="10"/>
         <v>analysis</v>
@@ -12314,7 +12323,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="10"/>
         <v>finding</v>
@@ -12344,7 +12353,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="10"/>
         <v>environmental</v>
@@ -12374,7 +12383,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C43" s="14"/>
       <c r="E43" t="s">
         <v>12</v>
@@ -12384,7 +12393,7 @@
         <v>0.85587935140038252</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C44" s="14"/>
       <c r="E44" t="s">
         <v>13</v>
@@ -12394,10 +12403,10 @@
         <v>8.5587935140038249E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C45" s="14"/>
     </row>
-    <row r="46" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -12406,7 +12415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f>MID($I47,SEARCH("'",$I47)+1, SEARCH("'",$I47,SEARCH("'",$I47)+1) -SEARCH("'",$I47)-1)</f>
         <v>policy</v>
@@ -12436,7 +12445,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" ref="A48:A56" si="14">MID(I48,SEARCH("'",I48)+1, SEARCH("'",I48,SEARCH("'",I48)+1) -SEARCH("'",I48)-1)</f>
         <v>state</v>
@@ -12469,7 +12478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="14"/>
         <v>level</v>
@@ -12511,7 +12520,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="14"/>
         <v>country</v>
@@ -12556,7 +12565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="14"/>
         <v>electricity</v>
@@ -12601,7 +12610,7 @@
         <v>0.71841557233425646</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="14"/>
         <v>barrier</v>
@@ -12646,7 +12655,7 @@
         <v>0.36009873501770384</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="14"/>
         <v>support</v>
@@ -12691,7 +12700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="14"/>
         <v>analysis</v>
@@ -12736,7 +12745,7 @@
         <v>0.53026502064796432</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="14"/>
         <v>renewables</v>
@@ -12766,7 +12775,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="14"/>
         <v>article</v>
@@ -12796,7 +12805,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C57" s="14"/>
       <c r="E57" t="s">
         <v>12</v>
@@ -12806,7 +12815,7 @@
         <v>1.1272044601206044</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C58" s="14"/>
       <c r="E58" t="s">
         <v>13</v>
@@ -12816,17 +12825,17 @@
         <v>0.11272044601206044</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C59" s="14"/>
     </row>
-    <row r="60" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="14"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f>MID($I61,SEARCH("'",$I61)+1, SEARCH("'",$I61,SEARCH("'",$I61)+1) -SEARCH("'",$I61)-1)</f>
         <v>power</v>
@@ -12856,7 +12865,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" ref="A62:A70" si="19">MID(I62,SEARCH("'",I62)+1, SEARCH("'",I62,SEARCH("'",I62)+1) -SEARCH("'",I62)-1)</f>
         <v>development</v>
@@ -12886,7 +12895,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="19"/>
         <v>program</v>
@@ -12916,7 +12925,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="19"/>
         <v>sector</v>
@@ -12946,7 +12955,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="19"/>
         <v>emission</v>
@@ -12976,7 +12985,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="19"/>
         <v>cost</v>
@@ -13006,7 +13015,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="19"/>
         <v>future</v>
@@ -13036,7 +13045,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="19"/>
         <v>country</v>
@@ -13066,7 +13075,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="19"/>
         <v>government</v>
@@ -13096,7 +13105,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="19"/>
         <v>capacity</v>
@@ -13126,7 +13135,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>12</v>
       </c>
@@ -13135,7 +13144,7 @@
         <v>0.92803171064040391</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>13</v>
       </c>
@@ -13155,30 +13164,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56712A18-8545-4E4E-8D4C-927100CECEBE}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C30" zoomScale="84" zoomScaleNormal="179" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C18" zoomScale="84" zoomScaleNormal="179" workbookViewId="0">
       <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="2.625" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
@@ -13195,7 +13204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>LEFT(G3,FIND(" ",G3)-1)</f>
         <v>policy</v>
@@ -13219,7 +13228,7 @@
       <c r="H3" s="26"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A12" si="0">LEFT(G4,FIND(" ",G4)-1)</f>
         <v>technology</v>
@@ -13243,7 +13252,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>industry</v>
@@ -13267,7 +13276,7 @@
       <c r="H5" s="26"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>sector</v>
@@ -13291,7 +13300,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>development</v>
@@ -13315,7 +13324,7 @@
       <c r="H7" s="26"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>country</v>
@@ -13339,7 +13348,7 @@
       <c r="H8" s="26"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>trade</v>
@@ -13363,7 +13372,7 @@
       <c r="H9" s="26"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>government</v>
@@ -13387,7 +13396,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>mix</v>
@@ -13411,7 +13420,7 @@
       <c r="H11" s="26"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>firm</v>
@@ -13435,7 +13444,7 @@
       <c r="H12" s="26"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>12</v>
       </c>
@@ -13445,7 +13454,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>13</v>
       </c>
@@ -13454,7 +13463,7 @@
         <v>1.8253743</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -13463,7 +13472,7 @@
         <v>0.14669381818181818</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>LEFT(G18,FIND(" ",G18)-1)</f>
         <v>community</v>
@@ -13486,7 +13495,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A27" si="2">LEFT(G19,FIND(" ",G19)-1)</f>
         <v>local</v>
@@ -13509,7 +13518,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="2"/>
         <v>program</v>
@@ -13532,7 +13541,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="2"/>
         <v>beneficiary</v>
@@ -13555,7 +13564,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="2"/>
         <v>management</v>
@@ -13578,7 +13587,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="2"/>
         <v>social</v>
@@ -13601,7 +13610,7 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="2"/>
         <v>development</v>
@@ -13624,7 +13633,7 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="2"/>
         <v>participation</v>
@@ -13647,7 +13656,7 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="2"/>
         <v>partnership</v>
@@ -13670,7 +13679,7 @@
       </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="2"/>
         <v>rural</v>
@@ -13693,7 +13702,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>12</v>
       </c>
@@ -13702,7 +13711,7 @@
         <v>16.030199</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>13</v>
       </c>
@@ -13711,12 +13720,12 @@
         <v>1.6030199000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" ref="A33:A42" si="4">LEFT(G33,FIND(" ",G33)-1)</f>
         <v>stakeholder</v>
@@ -13739,7 +13748,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="4"/>
         <v>communication</v>
@@ -13762,7 +13771,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="4"/>
         <v>retrofit</v>
@@ -13785,7 +13794,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="4"/>
         <v>relationship</v>
@@ -13808,7 +13817,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="4"/>
         <v>team</v>
@@ -13831,7 +13840,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="4"/>
         <v>organizational</v>
@@ -13854,7 +13863,7 @@
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="4"/>
         <v>mediating</v>
@@ -13877,7 +13886,7 @@
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="4"/>
         <v>method</v>
@@ -13900,7 +13909,7 @@
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="4"/>
         <v>variable</v>
@@ -13923,7 +13932,7 @@
       </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="4"/>
         <v>satisfaction</v>
@@ -13946,7 +13955,7 @@
       </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>12</v>
       </c>
@@ -13955,7 +13964,7 @@
         <v>14.870742</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>13</v>
       </c>
@@ -13964,13 +13973,13 @@
         <v>1.4870741999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>15</v>
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" ref="A47:A56" si="6">LEFT(G47,FIND(" ",G47)-1)</f>
         <v>investment</v>
@@ -13993,7 +14002,7 @@
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="6"/>
         <v>investor</v>
@@ -14019,7 +14028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="6"/>
         <v>preference</v>
@@ -14054,7 +14063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="6"/>
         <v>technology</v>
@@ -14092,7 +14101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="6"/>
         <v>portfolio</v>
@@ -14130,7 +14139,7 @@
         <v>0.35751766032990545</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="6"/>
         <v>performance</v>
@@ -14168,7 +14177,7 @@
         <v>2.2498139192986835E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="6"/>
         <v>financial</v>
@@ -14206,7 +14215,7 @@
         <v>7.962809286929462E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="6"/>
         <v>policy</v>
@@ -14244,7 +14253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="6"/>
         <v>retail</v>
@@ -14267,7 +14276,7 @@
       </c>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="6"/>
         <v>belief</v>
@@ -14290,7 +14299,7 @@
       </c>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>12</v>
       </c>
@@ -14299,7 +14308,7 @@
         <v>15.068461000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>13</v>
       </c>
@@ -14308,13 +14317,13 @@
         <v>1.5068461000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>17</v>
       </c>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" ref="A61:A70" si="9">LEFT(G61,FIND(" ",G61)-1)</f>
         <v>state</v>
@@ -14337,7 +14346,7 @@
       </c>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="9"/>
         <v>expansion</v>
@@ -14360,7 +14369,7 @@
       </c>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="9"/>
         <v>system</v>
@@ -14383,7 +14392,7 @@
       </c>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="9"/>
         <v>power</v>
@@ -14406,7 +14415,7 @@
       </c>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="9"/>
         <v>electricity</v>
@@ -14429,7 +14438,7 @@
       </c>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="9"/>
         <v>plant</v>
@@ -14452,7 +14461,7 @@
       </c>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="9"/>
         <v>promotion</v>
@@ -14475,7 +14484,7 @@
       </c>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="9"/>
         <v>fit</v>
@@ -14498,7 +14507,7 @@
       </c>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="9"/>
         <v>capacity</v>
@@ -14521,7 +14530,7 @@
       </c>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="9"/>
         <v>scheme</v>
@@ -14544,7 +14553,7 @@
       </c>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>12</v>
       </c>
@@ -14553,7 +14562,7 @@
         <v>14.792879000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>13</v>
       </c>
@@ -14571,25 +14580,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AAE192-C19F-B145-8935-C7706D392485}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="82" t="s">
         <v>205</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14603,10 +14612,19 @@
         <v>204</v>
       </c>
       <c r="E2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14619,12 +14637,21 @@
       <c r="D3" s="39">
         <v>0.28199999999999997</v>
       </c>
-      <c r="E3" s="14">
-        <f>AVERAGE(B3:D3)</f>
-        <v>0.28908</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="39">
+        <v>3</v>
+      </c>
+      <c r="F3" s="39">
+        <v>2</v>
+      </c>
+      <c r="G3" s="39">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14">
+        <f>(C3*E3+D3*F3+B3*G3)/SUM($E$3:$G$3)</f>
+        <v>0.29488666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -14637,12 +14664,12 @@
       <c r="D4" s="39">
         <v>0.2712</v>
       </c>
-      <c r="E4" s="14">
-        <f t="shared" ref="E4:E12" si="0">AVERAGE(B4:D4)</f>
-        <v>0.3173833333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H4" s="14">
+        <f>(C4*E3+D4*G3+B4*F3)/SUM($E$3:$G$3)</f>
+        <v>0.33014166666666661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -14655,12 +14682,12 @@
       <c r="D5" s="39">
         <v>0.30767</v>
       </c>
-      <c r="E5" s="14">
-        <f t="shared" si="0"/>
+      <c r="H5" s="14">
+        <f>AVERAGE(B5:D5)</f>
         <v>0.34244000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -14673,12 +14700,12 @@
       <c r="D6" s="39">
         <v>0.3009</v>
       </c>
-      <c r="E6" s="14">
-        <f t="shared" si="0"/>
+      <c r="H6" s="14">
+        <f>AVERAGE(B6:D6)</f>
         <v>0.34155000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -14691,12 +14718,12 @@
       <c r="D7" s="39">
         <v>0.27460000000000001</v>
       </c>
-      <c r="E7" s="14">
-        <f t="shared" si="0"/>
+      <c r="H7" s="14">
+        <f>AVERAGE(B7:D7)</f>
         <v>0.34309999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -14709,12 +14736,12 @@
       <c r="D8" s="39">
         <v>0.3019</v>
       </c>
-      <c r="E8" s="14">
-        <f t="shared" si="0"/>
+      <c r="H8" s="14">
+        <f>AVERAGE(B8:D8)</f>
         <v>0.32461666666666672</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -14727,12 +14754,12 @@
       <c r="D9" s="39">
         <v>0.29499999999999998</v>
       </c>
-      <c r="E9" s="14">
-        <f t="shared" si="0"/>
+      <c r="H9" s="14">
+        <f>AVERAGE(B9:D9)</f>
         <v>0.34059</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -14745,12 +14772,12 @@
       <c r="D10" s="40">
         <v>0.28958888862121701</v>
       </c>
-      <c r="E10" s="14">
-        <f t="shared" si="0"/>
+      <c r="H10" s="14">
+        <f>AVERAGE(B10:D10)</f>
         <v>0.35605962954040571</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -14763,12 +14790,12 @@
       <c r="D11" s="40">
         <v>0.30358116717600803</v>
       </c>
-      <c r="E11" s="14">
-        <f t="shared" si="0"/>
+      <c r="H11" s="14">
+        <f>AVERAGE(B11:D11)</f>
         <v>0.34941705572533605</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -14781,21 +14808,21 @@
       <c r="D12" s="40">
         <v>0.304794128062644</v>
       </c>
-      <c r="E12" s="14">
-        <f t="shared" si="0"/>
+      <c r="H12" s="14">
+        <f>AVERAGE(B12:D12)</f>
         <v>0.33560804268754801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="36"/>
     </row>
-    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="36"/>
     </row>
-    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="36"/>
     </row>
-    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="36"/>
     </row>
   </sheetData>

--- a/Text_Mining_Renewables/RE_Algorithm_Result_Summary_Update.xlsx
+++ b/Text_Mining_Renewables/RE_Algorithm_Result_Summary_Update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\Text_Mining_Renewables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9F160F-7919-4D0B-91E0-C35F043E537E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE149919-1CE4-46F1-B9E5-FA38E0081600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{9D53C0A4-6563-C147-903F-783DAE53B77D}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D53C0A4-6563-C147-903F-783DAE53B77D}"/>
   </bookViews>
   <sheets>
     <sheet name="Topic  Summary" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="223">
   <si>
     <t>Topics</t>
   </si>
@@ -100,9 +100,6 @@
     <t xml:space="preserve">Community </t>
   </si>
   <si>
-    <t>Performance</t>
-  </si>
-  <si>
     <t>System</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>Quantitative</t>
   </si>
   <si>
-    <t>Fiscal (Policy/Terms)</t>
-  </si>
-  <si>
     <t>Qualitative</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t>Community (Support/ Involvement)</t>
   </si>
   <si>
-    <t>Technology (Development) &amp; Social (Policy)</t>
-  </si>
-  <si>
     <t>Public-Private (Corisking)</t>
   </si>
   <si>
@@ -220,43 +211,19 @@
     <t>Non-Negative Matrix Factorization</t>
   </si>
   <si>
-    <t>Country Environmental policies</t>
-  </si>
-  <si>
     <t>Stakeholder Relationship Satisfaction</t>
   </si>
   <si>
     <t>Investor preference</t>
   </si>
   <si>
-    <t>Energy systems</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
     <t>Quantitative-'Qualitative</t>
   </si>
   <si>
-    <t>Technology and industry policies</t>
-  </si>
-  <si>
-    <t>Project Operations</t>
-  </si>
-  <si>
-    <t>Financial  Investments</t>
-  </si>
-  <si>
-    <t>Financial  Requirement</t>
-  </si>
-  <si>
     <t>Government support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technology (Development) </t>
-  </si>
-  <si>
-    <t>Technology investment, Stakeholder satisfaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -659,1094 +626,6 @@
     <t>Coherence scores</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'policy'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 'development' , 'community', 'power', 'sector', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>government',</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'investment', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'state'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 'country', 'program'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'stakeholder'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 'policy' , 'industry', 'climate' , '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>trade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' , '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>retrofit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">', 'efficiency', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'impact'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , 'analysis', 'country' </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>technology',</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'policy' , 'community', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'investment'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 'system', 'development', 'adoption', 'support', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'financial'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 'roadmaps'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'community', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>technology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>', 'policy', 'process'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 'local' , 'industry'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , 'international', 'development', 'power', 'transition'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>community'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 'value', 'sustainability' , 'firm', 'process', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'cocreation'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 'literature', 'environmental', 'minigrids', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>support</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>policy'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>state</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">', 'level', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'country'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 'electricity', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'barrier', 'support',</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'analysis', 'renewables', 'article'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>community', 'local</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">', 'industry', 'case', 'government', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'support'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 'social', 'international', 'development', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'change'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'power', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>development'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 'program', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'sector',</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-'emission', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cost</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>', 'future', 'country', 'government', 'capacity'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'technology','investment'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stakeholder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">', 'role', 'investor', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'performance',</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'framework', 'analysis',  'finding', 'environmental'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">system','process', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'management',</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'community','plant', 'model', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'sustainability', 'implementation', 'adoption', 'quality'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">'policy','technology', 'industry', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'sector', 'development',</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'country', 'trade', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'government</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'mix'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 'firm'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'stakeholder', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>communication</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>', 'retrofit', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>relationship</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>', 'team', 'organizational', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mediating</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>', 'method', 'variable', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>satisfaction</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>community', 'local'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 'program', 'beneficiary', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>management'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 'social', 'development', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>participation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>partnership</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>', 'rural'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'investment'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 'investor', 'preference' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 'technology', 'portfolio', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'performance',</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'financial',</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'policy', 'retail', 'belief'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">'state', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'expansion',</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'system', </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'power', 'electricity', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>plant'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 'promotion', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>', '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>capacity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">', </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'scheme</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'.</t>
-    </r>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
@@ -1754,6 +633,81 @@
   </si>
   <si>
     <t>Min</t>
+  </si>
+  <si>
+    <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>'policy', 'development', 'community', 'power', 'sector', 'government', 'investment', 'state', 'country', 'program'</t>
+  </si>
+  <si>
+    <t>'stakeholder', 'policy', 'industry', 'climate', 'trade', 'retrofit', 'efficiency', 'impact', 'analysis', 'country'</t>
+  </si>
+  <si>
+    <t>'technology', 'policy', 'community', 'investment', 'system', 'development', 'adoption', 'support', 'financial', 'roadmaps'</t>
+  </si>
+  <si>
+    <t>'community', 'technology', 'policy', 'process', 'local', 'industry', 'international', 'development', 'power', 'transition'</t>
+  </si>
+  <si>
+    <t>community', 'value', 'sustainability', 'firm', 'process', 'cocreation', 'literature', 'environmental', 'minigrids', 'support'</t>
+  </si>
+  <si>
+    <t>policy', 'state', 'level', 'country', 'electricity', 'barrier', 'support', 'analysis', 'renewables', 'article'</t>
+  </si>
+  <si>
+    <t>community', 'local', 'industry', 'case', 'government', 'support', 'social', 'international', 'development', 'change'</t>
+  </si>
+  <si>
+    <t>'power', 'development', 'program', 'sector',</t>
+  </si>
+  <si>
+    <t>'emission', 'cost', 'future', 'country', 'government', 'capacity'</t>
+  </si>
+  <si>
+    <t>'technology', 'investment', 'stakeholder', 'role', 'investor', 'performance', 'framework', 'analysis', 'finding', 'environmental'</t>
+  </si>
+  <si>
+    <t>system', 'process', 'management', 'community', 'plant', 'model', 'sustainability', 'implementation', 'adoption', 'quality'</t>
+  </si>
+  <si>
+    <t>'policy', 'technology', 'industry', 'sector', 'development', 'country', 'trade', 'government', 'mix', 'firm'</t>
+  </si>
+  <si>
+    <t>'stakeholder', 'communication', 'retrofit', 'relationship', 'team', 'organizational', 'mediating', 'method', 'variable', 'satisfaction'</t>
+  </si>
+  <si>
+    <t>'community', 'local', 'program', 'beneficiary', 'management', 'social', 'development', 'participation', 'partnership', 'rural'</t>
+  </si>
+  <si>
+    <t>'investment', 'investor', 'preference' , 'technology', 'portfolio', 'performance', 'financial', 'policy', 'retail', 'belief'</t>
+  </si>
+  <si>
+    <t>Industry and Trade</t>
+  </si>
+  <si>
+    <t>Financial Investments</t>
+  </si>
+  <si>
+    <t>Transition and Development of Local Community</t>
+  </si>
+  <si>
+    <t>Financial Requirement</t>
+  </si>
+  <si>
+    <t>Technology investment within a framework</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country-Sector development </t>
+  </si>
+  <si>
+    <t>Fiscal Mechanism /Term</t>
+  </si>
+  <si>
+    <t>Talent</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +721,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="0.0000000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1805,6 +759,22 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2116,7 +1086,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2207,9 +1177,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2231,9 +1198,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2246,9 +1210,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2256,6 +1217,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2299,6 +1269,18 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2352,7 +1334,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
-              <a:t>LDA GENSIM - Weightage of each Topic Words </a:t>
+              <a:t>GENSIM LDA - Weightage of each Topic Words </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2407,11 +1389,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="sq">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:bevel/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2460,7 +1442,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="b"/>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2490,7 +1472,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Gensi!$B$3:$B$12</c:f>
+              <c:f>Gensi!$B$31:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2529,39 +1511,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gensi!$C$3:$C$12</c:f>
+              <c:f>Gensi!$C$31:$C$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2769,7 +1751,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5286,18 +4268,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Choosing Optimal Topic Number using Coherence Score</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Topics vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Coherence Score</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5306,7 +4296,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17024650043744533"/>
+          <c:x val="0.30847014350385621"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -5323,13 +4313,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -5338,7 +4328,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10760462026976164"/>
+          <c:y val="0.10630490956072351"/>
+          <c:w val="0.86236674939328128"/>
+          <c:h val="0.74979328165374681"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -5363,6 +4363,7 @@
                   <a:shade val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5477,6 +4478,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5591,6 +4593,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5695,13 +4698,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average</c:v>
+                  <c:v>Weighted Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="53975" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -5710,7 +4713,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -5721,25 +4737,23 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="b"/>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -5818,28 +4832,28 @@
                   <c:v>0.33014166666666661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34244000000000002</c:v>
+                  <c:v>0.35250333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34155000000000002</c:v>
+                  <c:v>0.35614166666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34309999999999996</c:v>
+                  <c:v>0.36105000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32461666666666672</c:v>
+                  <c:v>0.33208333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34059</c:v>
+                  <c:v>0.35428500000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35605962954040571</c:v>
+                  <c:v>0.37504314810353617</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34941705572533605</c:v>
+                  <c:v>0.36366519452933471</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33560804268754801</c:v>
+                  <c:v>0.343664021343774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5900,13 +4914,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -5929,13 +4943,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx2"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -5960,17 +4974,17 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -6020,13 +5034,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -6057,13 +5071,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx2"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -6086,13 +5100,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -6112,6 +5126,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2017782538370609E-2"/>
+          <c:y val="8.4477480559765339E-2"/>
+          <c:w val="0.28340680762379727"/>
+          <c:h val="0.21430100307229039"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6125,13 +5149,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -6169,7 +5193,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -9459,8 +8486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7C202E-3FD9-BF4A-824D-12C76629F2F1}">
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9470,11 +8497,11 @@
     <col min="3" max="3" width="18.125" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.375" style="15" customWidth="1"/>
     <col min="5" max="5" width="10.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="15" customWidth="1"/>
     <col min="9" max="9" width="9.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="15" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="15" customWidth="1"/>
     <col min="11" max="11" width="39.125" style="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.625" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5" style="16" bestFit="1" customWidth="1"/>
@@ -9490,57 +8517,57 @@
   <sheetData>
     <row r="1" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E2" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="42" t="s">
-        <v>44</v>
-      </c>
       <c r="G2" s="43" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H2" s="43" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="J2" s="44" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="K2" s="44" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="L2" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="N2" s="43" t="s">
         <v>46</v>
-      </c>
-      <c r="N2" s="43" t="s">
-        <v>47</v>
       </c>
       <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="38">
         <f>AVERAGE(I3,I8,I13)</f>
@@ -9551,7 +8578,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="72">
         <v>0.27500000000000002</v>
@@ -9563,7 +8590,7 @@
         <f>Gensi!K59</f>
         <v>1</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="86">
         <v>1</v>
       </c>
       <c r="J3" s="48">
@@ -9571,31 +8598,31 @@
         <v>5</v>
       </c>
       <c r="K3" s="49" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L3" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="52" t="s">
-        <v>52</v>
+      <c r="N3" s="67" t="s">
+        <v>50</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="37"/>
     </row>
     <row r="4" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="38">
         <f>AVERAGE(I4,I12,I14)</f>
         <v>3</v>
       </c>
       <c r="C4" s="19">
-        <f>(J4^H4+J12^H12+J14^H14)/3</f>
-        <v>1.9211763843172134</v>
+        <f>(J4^H4+J11^H11+J14^H14)/3</f>
+        <v>2.0156809628307895</v>
       </c>
       <c r="E4" s="70"/>
       <c r="F4" s="72"/>
@@ -9606,7 +8633,7 @@
         <f>Gensi!K61</f>
         <v>0.81987577639751541</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="86">
         <v>2</v>
       </c>
       <c r="J4" s="48">
@@ -9614,23 +8641,23 @@
         <v>4</v>
       </c>
       <c r="K4" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="L4" s="53" t="s">
-        <v>65</v>
+        <v>200</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>60</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="52" t="s">
-        <v>56</v>
+        <v>214</v>
+      </c>
+      <c r="N4" s="67" t="s">
+        <v>53</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="37"/>
     </row>
     <row r="5" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="38">
         <f>AVERAGE(I7,I9,I15)</f>
@@ -9649,7 +8676,7 @@
         <f>Gensi!K58</f>
         <v>0.6894409937888204</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="86">
         <v>3</v>
       </c>
       <c r="J5" s="48">
@@ -9657,31 +8684,31 @@
         <v>3</v>
       </c>
       <c r="K5" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="L5" s="54" t="s">
-        <v>49</v>
+        <v>201</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>48</v>
       </c>
       <c r="M5" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="52" t="s">
-        <v>50</v>
+        <v>215</v>
+      </c>
+      <c r="N5" s="67" t="s">
+        <v>221</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>50</v>
+        <v>221</v>
       </c>
       <c r="B6" s="38">
         <f>AVERAGE(I5,I10,I16)</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="C6" s="19">
-        <f>(J6^H5+J10^H10+J16^H16)/3</f>
-        <v>1.4866709717305346</v>
+        <f>(J5^H5+J10^H10+J16^H16)/3</f>
+        <v>1.6600462544453871</v>
       </c>
       <c r="E6" s="70"/>
       <c r="F6" s="72"/>
@@ -9692,7 +8719,7 @@
         <f>Gensi!K60</f>
         <v>0.18012422360248459</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="86">
         <v>4</v>
       </c>
       <c r="J6" s="48">
@@ -9700,95 +8727,95 @@
         <v>2</v>
       </c>
       <c r="K6" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="L6" s="53" t="s">
-        <v>65</v>
+        <v>202</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>60</v>
       </c>
       <c r="M6" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="52" t="s">
-        <v>55</v>
+        <v>216</v>
+      </c>
+      <c r="N6" s="67" t="s">
+        <v>222</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="37"/>
     </row>
     <row r="7" spans="1:25" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="B7" s="38">
         <f>AVERAGE(I6,I11,I17)</f>
         <v>4.333333333333333</v>
       </c>
       <c r="C7" s="19">
-        <f>(J6^H6+J11^H11+J17^H17)/3</f>
-        <v>1.1388317240916486</v>
+        <f>(J6^H6+J12^H12+J17^H17)/3</f>
+        <v>1.044327145578072</v>
       </c>
       <c r="E7" s="71"/>
       <c r="F7" s="73"/>
-      <c r="G7" s="55">
+      <c r="G7" s="54">
         <v>1</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="55">
         <f>Gensi!K57</f>
         <v>0</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="87">
         <v>5</v>
       </c>
       <c r="J7" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K7" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="L7" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="60" t="s">
-        <v>54</v>
+      <c r="K7" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="68" t="s">
+        <v>52</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="37"/>
     </row>
     <row r="8" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="74" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F8" s="77">
         <v>0.38200000000000001</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="59">
         <v>4</v>
       </c>
-      <c r="H8" s="62">
+      <c r="H8" s="60">
         <f>Mallet!N53</f>
         <v>1</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="88">
         <v>1</v>
       </c>
       <c r="J8" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K8" s="63" t="s">
-        <v>211</v>
+      <c r="K8" s="61" t="s">
+        <v>204</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="N8" s="65" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="M8" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="66" t="s">
+        <v>50</v>
       </c>
       <c r="O8" s="15"/>
     </row>
@@ -9802,7 +8829,7 @@
         <f>Mallet!N51</f>
         <v>0.71841557233425646</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="86">
         <v>2</v>
       </c>
       <c r="J9" s="48">
@@ -9810,16 +8837,16 @@
         <v>4</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="L9" s="54" t="s">
-        <v>49</v>
+        <v>205</v>
+      </c>
+      <c r="L9" s="53" t="s">
+        <v>48</v>
       </c>
       <c r="M9" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="52" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="N9" s="67" t="s">
+        <v>52</v>
       </c>
       <c r="O9" s="15"/>
     </row>
@@ -9833,7 +8860,7 @@
         <f>Mallet!N54</f>
         <v>0.53026502064796432</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="86">
         <v>3</v>
       </c>
       <c r="J10" s="48">
@@ -9841,16 +8868,16 @@
         <v>3</v>
       </c>
       <c r="K10" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="L10" s="54" t="s">
-        <v>49</v>
+        <v>206</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>48</v>
       </c>
       <c r="M10" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="52" t="s">
-        <v>50</v>
+        <v>217</v>
+      </c>
+      <c r="N10" s="67" t="s">
+        <v>221</v>
       </c>
       <c r="O10" s="15"/>
     </row>
@@ -9864,7 +8891,7 @@
         <f>Mallet!N52</f>
         <v>0.36009873501770384</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="86">
         <v>4</v>
       </c>
       <c r="J11" s="48">
@@ -9872,65 +8899,65 @@
         <v>2</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="L11" s="53" t="s">
-        <v>65</v>
+        <v>207</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>60</v>
       </c>
       <c r="M11" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" s="52" t="s">
-        <v>71</v>
+        <v>218</v>
+      </c>
+      <c r="N11" s="67" t="s">
+        <v>53</v>
       </c>
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:25" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="76"/>
       <c r="F12" s="80"/>
-      <c r="G12" s="55">
+      <c r="G12" s="54">
         <v>1</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="55">
         <f>Mallet!N50</f>
         <v>0</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="87">
         <v>5</v>
       </c>
       <c r="J12" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K12" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="L12" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="N12" s="60" t="s">
-        <v>56</v>
+      <c r="K12" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="N12" s="68" t="s">
+        <v>222</v>
       </c>
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="70" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F13" s="81">
         <v>0.372</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13" s="59">
         <v>1</v>
       </c>
       <c r="H13" s="47">
         <f>NMF!M50</f>
         <v>1</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="86">
         <v>1</v>
       </c>
       <c r="J13" s="48">
@@ -9938,16 +8965,16 @@
         <v>5</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="L13" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="52" t="s">
-        <v>52</v>
+        <v>209</v>
+      </c>
+      <c r="L13" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="N13" s="67" t="s">
+        <v>50</v>
       </c>
       <c r="O13" s="15"/>
     </row>
@@ -9961,7 +8988,7 @@
         <f>Mallet!N52</f>
         <v>0.36009873501770384</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="86">
         <v>2</v>
       </c>
       <c r="J14" s="48">
@@ -9969,16 +8996,16 @@
         <v>4</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="L14" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" s="52" t="s">
-        <v>56</v>
+        <v>210</v>
+      </c>
+      <c r="L14" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="67" t="s">
+        <v>53</v>
       </c>
       <c r="O14" s="15"/>
     </row>
@@ -9992,7 +9019,7 @@
         <f>NMF!M51</f>
         <v>0.35751766032990545</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="86">
         <v>3</v>
       </c>
       <c r="J15" s="48">
@@ -10000,16 +9027,16 @@
         <v>3</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="L15" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="N15" s="52" t="s">
-        <v>54</v>
+        <v>211</v>
+      </c>
+      <c r="L15" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="67" t="s">
+        <v>52</v>
       </c>
       <c r="O15" s="15"/>
     </row>
@@ -10023,7 +9050,7 @@
         <f>NMF!M53</f>
         <v>7.962809286929462E-2</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="86">
         <v>4</v>
       </c>
       <c r="J16" s="48">
@@ -10031,137 +9058,137 @@
         <v>2</v>
       </c>
       <c r="K16" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="L16" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="N16" s="52" t="s">
-        <v>50</v>
+        <v>212</v>
+      </c>
+      <c r="L16" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="67" t="s">
+        <v>221</v>
       </c>
       <c r="O16" s="15"/>
     </row>
     <row r="17" spans="5:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="71"/>
       <c r="F17" s="73"/>
-      <c r="G17" s="55">
+      <c r="G17" s="54">
         <v>5</v>
       </c>
-      <c r="H17" s="56">
+      <c r="H17" s="55">
         <f>NMF!M54</f>
         <v>0</v>
       </c>
-      <c r="I17" s="56">
+      <c r="I17" s="87">
         <v>5</v>
       </c>
       <c r="J17" s="48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K17" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="L17" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" s="60" t="s">
-        <v>55</v>
+      <c r="K17" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="L17" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="N17" s="68" t="s">
+        <v>222</v>
       </c>
       <c r="O17" s="15"/>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="48"/>
       <c r="I20" s="48"/>
       <c r="J20" s="48"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
     </row>
     <row r="21" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="48"/>
       <c r="I21" s="48"/>
       <c r="J21" s="48"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
     </row>
     <row r="22" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
       <c r="J22" s="48"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
     </row>
     <row r="23" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
       <c r="J23" s="48"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
       <c r="R23" s="15">
         <f>5/2*0.8</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
       <c r="J24" s="48"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G13:N17">
@@ -10184,8 +9211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B2EBC4-EA9C-8A41-86FD-A37A3E96A1A9}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10240,7 +9267,7 @@
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -10259,7 +9286,7 @@
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -10278,7 +9305,7 @@
     </row>
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -10297,7 +9324,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -10315,7 +9342,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -10333,7 +9360,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -10351,7 +9378,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -10369,7 +9396,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -10387,7 +9414,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -10448,7 +9475,7 @@
     </row>
     <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -10467,7 +9494,7 @@
     </row>
     <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -10505,7 +9532,7 @@
     </row>
     <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -10524,7 +9551,7 @@
     </row>
     <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -10562,7 +9589,7 @@
     </row>
     <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>8</v>
@@ -10581,7 +9608,7 @@
     </row>
     <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B25">
         <v>9</v>
@@ -10600,7 +9627,7 @@
     </row>
     <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -10642,12 +9669,12 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="27">
         <v>1.6E-2</v>
       </c>
       <c r="D31">
@@ -10660,12 +9687,12 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="27">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D32">
@@ -10678,12 +9705,12 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="27">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D33">
@@ -10696,12 +9723,12 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="27">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D34">
@@ -10714,12 +9741,12 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="27">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D35">
@@ -10732,12 +9759,12 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D36">
@@ -10755,7 +9782,7 @@
       <c r="B37">
         <v>7</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D37">
@@ -10768,12 +9795,12 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38">
         <v>8</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="27">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D38">
@@ -10786,12 +9813,12 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39">
         <v>9</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="27">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D39">
@@ -10804,12 +9831,12 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B40">
         <v>10</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="27">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D40">
@@ -10845,7 +9872,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -10881,7 +9908,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -10899,7 +9926,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -10917,7 +9944,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -10935,7 +9962,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -10953,7 +9980,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -10971,7 +9998,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -10989,7 +10016,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B53">
         <v>9</v>
@@ -11007,7 +10034,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B54">
         <v>10</v>
@@ -11032,7 +10059,7 @@
         <v>0.33100000000000007</v>
       </c>
       <c r="H55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K55" s="21"/>
     </row>
@@ -11045,16 +10072,16 @@
         <v>3.3100000000000004E-2</v>
       </c>
       <c r="H56" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I56" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="K56" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -11129,7 +10156,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -11162,7 +10189,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -11195,7 +10222,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -11213,7 +10240,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -11231,7 +10258,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -11247,12 +10274,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B65">
         <v>7</v>
@@ -11268,12 +10295,12 @@
         <v>1.6E-2</v>
       </c>
       <c r="H65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -11289,12 +10316,12 @@
         <v>1.2E-2</v>
       </c>
       <c r="H66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B67">
         <v>9</v>
@@ -11310,12 +10337,12 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B68">
         <v>10</v>
@@ -11351,17 +10378,17 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -11406,7 +10433,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>5</v>
@@ -11445,7 +10472,7 @@
         <v xml:space="preserve"> 0.01986835689907362)</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -11475,7 +10502,7 @@
         <v xml:space="preserve"> 0.015358361774744027)</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -11505,7 +10532,7 @@
         <v xml:space="preserve"> 0.013529985372988785)</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -11535,7 +10562,7 @@
         <v xml:space="preserve"> 0.010117016089712336)</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -11565,7 +10592,7 @@
         <v xml:space="preserve"> 0.009873232569478304)</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -11595,7 +10622,7 @@
         <v xml:space="preserve"> 0.00938566552901024)</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -11625,7 +10652,7 @@
         <v xml:space="preserve"> 0.008898098488542174)</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -11655,7 +10682,7 @@
         <v xml:space="preserve"> 0.00841053144807411)</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -11685,7 +10712,7 @@
         <v xml:space="preserve"> 0.007069722086786933)</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -11715,7 +10742,7 @@
         <v xml:space="preserve"> 0.006094588005850805)</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -11778,7 +10805,7 @@
         <v xml:space="preserve"> 0.032230073137473655)</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -11808,7 +10835,7 @@
         <v xml:space="preserve"> 0.020949547539357877)</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -11838,7 +10865,7 @@
         <v xml:space="preserve"> 0.01921408206272468)</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -11868,7 +10895,7 @@
         <v xml:space="preserve"> 0.01400768563282509)</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -11898,7 +10925,7 @@
         <v xml:space="preserve"> 0.012272220156191893)</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -11928,7 +10955,7 @@
         <v xml:space="preserve"> 0.012272220156191893)</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -11958,7 +10985,7 @@
         <v xml:space="preserve"> 0.011776372877153836)</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -11988,7 +11015,7 @@
         <v xml:space="preserve"> 0.01128052559811578)</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -12018,7 +11045,7 @@
         <v xml:space="preserve"> 0.01004090740052064)</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -12048,7 +11075,7 @@
         <v xml:space="preserve"> 0.00917317466220404)</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -12110,7 +11137,7 @@
         <v xml:space="preserve"> 0.029821975280644064)</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -12140,7 +11167,7 @@
         <v xml:space="preserve"> 0.016101598820727973)</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -12170,7 +11197,7 @@
         <v xml:space="preserve"> 0.01530785803379068)</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -12200,7 +11227,7 @@
         <v xml:space="preserve"> 0.01258646105000567)</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -12230,7 +11257,7 @@
         <v xml:space="preserve"> 0.01156593718108629)</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -12260,7 +11287,7 @@
         <v xml:space="preserve"> 0.009751672525229618)</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -12290,7 +11317,7 @@
         <v xml:space="preserve"> 0.008504365574328154)</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -12320,7 +11347,7 @@
         <v xml:space="preserve"> 0.008390974033337113)</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -12350,7 +11377,7 @@
         <v xml:space="preserve"> 0.00827758249234607)</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -12380,7 +11407,7 @@
         <v xml:space="preserve"> 0.00827758249234607)</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -12442,7 +11469,7 @@
         <v xml:space="preserve"> 0.061099101149163726)</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -12472,10 +11499,10 @@
         <v xml:space="preserve"> 0.016270337922403004)</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="K48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -12505,19 +11532,19 @@
         <v xml:space="preserve"> 0.012288087381954716)</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K49" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L49" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M49" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="N49" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -12547,7 +11574,7 @@
         <v xml:space="preserve"> 0.011264080100125156)</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="K50" s="8">
         <v>1</v>
@@ -12592,7 +11619,7 @@
         <v xml:space="preserve"> 0.00955740129707589)</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K51" s="8">
         <v>2</v>
@@ -12637,7 +11664,7 @@
         <v xml:space="preserve"> 0.00944362271020594)</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K52" s="8">
         <v>3</v>
@@ -12682,7 +11709,7 @@
         <v xml:space="preserve"> 0.009216065536466037)</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K53" s="8">
         <v>4</v>
@@ -12727,7 +11754,7 @@
         <v xml:space="preserve"> 0.008874729775856184)</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K54" s="9">
         <v>5</v>
@@ -12772,7 +11799,7 @@
         <v xml:space="preserve"> 0.00841961542837638)</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -12802,7 +11829,7 @@
         <v xml:space="preserve"> 0.007736943907156673)</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -12862,7 +11889,7 @@
         <v xml:space="preserve"> 0.026631983153722283)</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -12892,7 +11919,7 @@
         <v xml:space="preserve"> 0.02204880465750031)</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -12922,7 +11949,7 @@
         <v xml:space="preserve"> 0.017217886783104173)</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -12952,7 +11979,7 @@
         <v xml:space="preserve"> 0.01622692927040753)</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -12982,7 +12009,7 @@
         <v xml:space="preserve"> 0.010652793261488913)</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -13012,7 +12039,7 @@
         <v xml:space="preserve"> 0.010281184194227673)</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -13042,7 +12069,7 @@
         <v xml:space="preserve"> 0.009785705437879351)</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -13072,7 +12099,7 @@
         <v xml:space="preserve"> 0.00966183574879227)</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -13102,7 +12129,7 @@
         <v xml:space="preserve"> 0.00953796605970519)</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -13132,7 +12159,7 @@
         <v xml:space="preserve"> 0.00941409637061811)</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -13223,7 +12250,7 @@
         <v>7.1050599999999999</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="1"/>
@@ -13247,7 +12274,7 @@
         <v>3.0564450000000001</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H4" s="26"/>
       <c r="I4" s="1"/>
@@ -13271,7 +12298,7 @@
         <v>2.1534</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H5" s="26"/>
       <c r="I5" s="1"/>
@@ -13295,7 +12322,7 @@
         <v>1.8518220000000001</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="1"/>
@@ -13319,7 +12346,7 @@
         <v>1.43523</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="1"/>
@@ -13343,7 +12370,7 @@
         <v>0.96138500000000005</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="1"/>
@@ -13367,7 +12394,7 @@
         <v>0.69489199999999995</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="1"/>
@@ -13391,7 +12418,7 @@
         <v>0.52085700000000001</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="1"/>
@@ -13415,7 +12442,7 @@
         <v>0.31811600000000001</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="1"/>
@@ -13439,7 +12466,7 @@
         <v>0.15653600000000001</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="1"/>
@@ -13491,7 +12518,7 @@
         <v>8.0681599999999989</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -13514,7 +12541,7 @@
         <v>2.1162510000000001</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -13537,7 +12564,7 @@
         <v>1.7700959999999999</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -13560,7 +12587,7 @@
         <v>1.1526339999999999</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -13583,7 +12610,7 @@
         <v>0.92992200000000014</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -13606,7 +12633,7 @@
         <v>0.71562499999999996</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -13629,7 +12656,7 @@
         <v>0.54787600000000003</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -13652,7 +12679,7 @@
         <v>0.39441000000000004</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -13675,7 +12702,7 @@
         <v>0.23001199999999999</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -13698,7 +12725,7 @@
         <v>0.105213</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -13744,7 +12771,7 @@
         <v>4.9975800000000001</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H33" s="1"/>
     </row>
@@ -13767,7 +12794,7 @@
         <v>2.2054140000000002</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="H34" s="1"/>
     </row>
@@ -13790,7 +12817,7 @@
         <v>1.906488</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="H35" s="1"/>
     </row>
@@ -13813,7 +12840,7 @@
         <v>1.6568719999999999</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H36" s="1"/>
     </row>
@@ -13836,7 +12863,7 @@
         <v>1.30935</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="H37" s="1"/>
     </row>
@@ -13859,7 +12886,7 @@
         <v>1.0237100000000001</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H38" s="1"/>
     </row>
@@ -13882,7 +12909,7 @@
         <v>0.76924000000000003</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H39" s="1"/>
     </row>
@@ -13905,7 +12932,7 @@
         <v>0.52980000000000005</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H40" s="1"/>
     </row>
@@ -13928,7 +12955,7 @@
         <v>0.32177600000000001</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H41" s="1"/>
     </row>
@@ -13951,7 +12978,7 @@
         <v>0.15051200000000001</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="H42" s="1"/>
     </row>
@@ -13998,7 +13025,7 @@
         <v>5.38192</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H47" s="1"/>
     </row>
@@ -14021,11 +13048,11 @@
         <v>4.6632420000000003</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="H48" s="1"/>
       <c r="J48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -14047,20 +13074,20 @@
         <v>1.4539679999999999</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="H49" s="1"/>
       <c r="J49" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="M49" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -14082,7 +13109,7 @@
         <v>0.96553800000000001</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="H50" s="1"/>
       <c r="J50" s="8">
@@ -14120,7 +13147,7 @@
         <v>0.77351400000000003</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H51" s="1"/>
       <c r="J51" s="8">
@@ -14158,7 +13185,7 @@
         <v>0.62158499999999994</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H52" s="1"/>
       <c r="J52" s="8">
@@ -14196,7 +13223,7 @@
         <v>0.49666399999999999</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="H53" s="1"/>
       <c r="J53" s="8">
@@ -14234,7 +13261,7 @@
         <v>0.372054</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H54" s="1"/>
       <c r="J54" s="9">
@@ -14272,7 +13299,7 @@
         <v>0.23247799999999999</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H55" s="1"/>
     </row>
@@ -14295,7 +13322,7 @@
         <v>0.107498</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="H56" s="1"/>
     </row>
@@ -14342,7 +13369,7 @@
         <v>3.3052299999999999</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H61" s="1"/>
     </row>
@@ -14365,7 +13392,7 @@
         <v>2.8112759999999999</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="H62" s="1"/>
     </row>
@@ -14388,7 +13415,7 @@
         <v>2.248856</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H63" s="1"/>
     </row>
@@ -14411,7 +13438,7 @@
         <v>1.8598439999999998</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H64" s="1"/>
     </row>
@@ -14434,7 +13461,7 @@
         <v>1.541598</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="H65" s="1"/>
     </row>
@@ -14457,7 +13484,7 @@
         <v>1.07576</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="H66" s="1"/>
     </row>
@@ -14480,7 +13507,7 @@
         <v>0.84238400000000002</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="H67" s="1"/>
     </row>
@@ -14503,7 +13530,7 @@
         <v>0.5661210000000001</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="H68" s="1"/>
     </row>
@@ -14526,7 +13553,7 @@
         <v>0.37194199999999999</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H69" s="1"/>
     </row>
@@ -14549,7 +13576,7 @@
         <v>0.16986799999999999</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H70" s="1"/>
     </row>
@@ -14580,10 +13607,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AAE192-C19F-B145-8935-C7706D392485}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14591,40 +13618,40 @@
     <col min="2" max="2" width="21" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="82" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14650,8 +13677,16 @@
         <f>(C3*E3+D3*F3+B3*G3)/SUM($E$3:$G$3)</f>
         <v>0.29488666666666669</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="14">
+        <f t="shared" ref="I3:I12" si="0">AVERAGE(B3:D3)</f>
+        <v>0.28908</v>
+      </c>
+      <c r="J3" s="14">
+        <f>SUM(E3:G3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -14668,8 +13703,12 @@
         <f>(C4*E3+D4*G3+B4*F3)/SUM($E$3:$G$3)</f>
         <v>0.33014166666666661</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="14">
+        <f t="shared" si="0"/>
+        <v>0.3173833333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -14683,11 +13722,15 @@
         <v>0.30767</v>
       </c>
       <c r="H5" s="14">
-        <f>AVERAGE(B5:D5)</f>
+        <f>(C5*E3+B5*F3+D5*G3)/SUM($E$3:$G$3)</f>
+        <v>0.35250333333333334</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" si="0"/>
         <v>0.34244000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -14701,29 +13744,37 @@
         <v>0.3009</v>
       </c>
       <c r="H6" s="14">
-        <f>AVERAGE(B6:D6)</f>
+        <f>(C6*E3+B6*F3+D6*G3)/SUM($E$3:$G$3)</f>
+        <v>0.35614166666666663</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="0"/>
         <v>0.34155000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:10" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="83">
         <v>5</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="84">
         <v>0.38229999999999997</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="85">
         <v>0.37240000000000001</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="85">
         <v>0.27460000000000001</v>
       </c>
-      <c r="H7" s="14">
-        <f>AVERAGE(B7:D7)</f>
+      <c r="H7" s="85">
+        <f>(B7*E3+C7*F3+D7*G3)/SUM($E$3:$G$3)</f>
+        <v>0.36105000000000004</v>
+      </c>
+      <c r="I7" s="85">
+        <f t="shared" si="0"/>
         <v>0.34309999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -14737,11 +13788,15 @@
         <v>0.3019</v>
       </c>
       <c r="H8" s="14">
-        <f>AVERAGE(B8:D8)</f>
+        <f>(B8*E3+C8*F3+D8*G3)/SUM($E$3:$G$3)</f>
+        <v>0.33208333333333334</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="0"/>
         <v>0.32461666666666672</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -14755,11 +13810,15 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="H9" s="14">
-        <f>AVERAGE(B9:D9)</f>
+        <f>(C9*E3+B9*F3+D9*G3)/SUM($E$3:$G$3)</f>
+        <v>0.35428500000000002</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="0"/>
         <v>0.34059</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -14773,11 +13832,15 @@
         <v>0.28958888862121701</v>
       </c>
       <c r="H10" s="14">
-        <f>AVERAGE(B10:D10)</f>
+        <f>(C10*E3+B10*F3+D10*G3)/SUM($E$3:$G$3)</f>
+        <v>0.37504314810353617</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="0"/>
         <v>0.35605962954040571</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -14791,11 +13854,15 @@
         <v>0.30358116717600803</v>
       </c>
       <c r="H11" s="14">
-        <f>AVERAGE(B11:D11)</f>
+        <f>(C11*E3+B11*F3+D11*G3)/SUM($E$3:$G$3)</f>
+        <v>0.36366519452933471</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="0"/>
         <v>0.34941705572533605</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -14809,20 +13876,24 @@
         <v>0.304794128062644</v>
       </c>
       <c r="H12" s="14">
-        <f>AVERAGE(B12:D12)</f>
+        <f>(C12*E3+B12*F3+D12*G3)/SUM($E$3:$G$3)</f>
+        <v>0.343664021343774</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="0"/>
         <v>0.33560804268754801</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="36"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="36"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="36"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="36"/>
     </row>
   </sheetData>
@@ -14830,6 +13901,7 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>